--- a/IMPORTANT DSA PROBLEMS List.xlsx
+++ b/IMPORTANT DSA PROBLEMS List.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Placement training\DSA Problems\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09D2C2D-6BAA-499B-AC98-850989CCAB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="t+4ZGS39t6VCvRdnzlMI03AxRdaOtkp9Xf8XdEqyqUo="/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -51,12 +53,12 @@
     <t>Reverse the array</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>Find the maximum and minimum element in an array</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
@@ -75,6 +77,9 @@
     <t>find Largest sum contiguous Subarray [V. IMP]</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
@@ -1423,20 +1428,24 @@
   </si>
   <si>
     <t>Power Set</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1444,12 +1453,14 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1457,58 +1468,388 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="16"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="16"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1516,9 +1857,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1529,33 +2112,77 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1753,38 +2380,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.2" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="28.3984375" customWidth="1"/>
+    <col min="1" max="1" width="28.4" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" customWidth="1"/>
-    <col min="4" max="6" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="27.4" customWidth="1"/>
+    <col min="4" max="6" width="10.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" ht="15.75" customHeight="1" spans="2:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="15.75" customHeight="1" spans="2:2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" ht="15.75" customHeight="1"/>
+    <row r="4" ht="15.75" customHeight="1" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1795,12 +2422,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="15.75" customHeight="1" spans="3:3">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" ht="15.75" customHeight="1" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1808,21 +2435,21 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1830,10 +2457,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1841,10 +2468,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1852,10 +2479,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1863,10 +2490,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1874,10 +2501,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1885,5928 +2512,5929 @@
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" ht="15.75" customHeight="1" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" spans="1:3">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" spans="1:3">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" spans="1:3">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" spans="1:3">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" spans="1:3">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1" spans="1:3">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" spans="1:3">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1" spans="1:3">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1" spans="1:3">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1" spans="2:3">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" ht="15.75" customHeight="1" spans="1:3">
       <c r="A44" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A45" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="B45" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1" spans="1:3">
       <c r="A46" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1" spans="1:3">
       <c r="A47" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1" spans="1:3">
       <c r="A48" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1" spans="1:3">
       <c r="A49" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" spans="1:3">
       <c r="A50" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" ht="15.75" customHeight="1" spans="1:3">
       <c r="A51" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" ht="15.75" customHeight="1" spans="1:3">
       <c r="A52" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" ht="15.75" customHeight="1" spans="1:3">
       <c r="A53" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1" spans="1:3">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" ht="15.75" customHeight="1" spans="1:3">
       <c r="A56" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="B57" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" ht="15.75" customHeight="1" spans="1:3">
       <c r="A58" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" ht="15.75" customHeight="1" spans="1:3">
       <c r="A59" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" ht="15.75" customHeight="1" spans="1:3">
       <c r="A60" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" ht="15.75" customHeight="1" spans="1:3">
       <c r="A61" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" ht="15.75" customHeight="1" spans="1:3">
       <c r="A62" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" ht="15.75" customHeight="1" spans="1:3">
       <c r="A63" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" ht="15.75" customHeight="1" spans="1:3">
       <c r="A64" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" ht="15.75" customHeight="1" spans="1:3">
       <c r="A65" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" ht="15.75" customHeight="1" spans="1:3">
       <c r="A66" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" ht="15.75" customHeight="1" spans="1:3">
       <c r="A67" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" ht="15.75" customHeight="1" spans="1:3">
       <c r="A68" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" ht="15.75" customHeight="1" spans="1:3">
       <c r="A69" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" ht="15.75" customHeight="1" spans="1:3">
       <c r="A70" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" ht="15.75" customHeight="1" spans="1:3">
       <c r="A71" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" ht="15.75" customHeight="1" spans="1:3">
       <c r="A72" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" ht="15.75" customHeight="1" spans="1:3">
       <c r="A73" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" ht="15.75" customHeight="1" spans="1:3">
       <c r="A74" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" ht="15.75" customHeight="1" spans="1:3">
       <c r="A75" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" ht="15.75" customHeight="1" spans="1:3">
       <c r="A76" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" ht="15.75" customHeight="1" spans="1:3">
       <c r="A77" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" ht="15.75" customHeight="1" spans="1:3">
       <c r="A78" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" ht="15.75" customHeight="1" spans="1:3">
       <c r="A79" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" ht="15.75" customHeight="1" spans="1:3">
       <c r="A80" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" ht="15.75" customHeight="1" spans="1:3">
       <c r="A81" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" ht="15.75" customHeight="1" spans="1:3">
       <c r="A82" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" ht="15.75" customHeight="1" spans="1:3">
       <c r="A83" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" ht="15.75" customHeight="1" spans="1:3">
       <c r="A84" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" ht="15.75" customHeight="1" spans="1:3">
       <c r="A85" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" ht="15.75" customHeight="1" spans="1:3">
       <c r="A86" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" ht="15.75" customHeight="1" spans="1:3">
       <c r="A87" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" ht="15.75" customHeight="1" spans="1:3">
       <c r="A88" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" ht="15.75" customHeight="1" spans="1:3">
       <c r="A89" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" ht="15.75" customHeight="1" spans="1:3">
       <c r="A90" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" ht="15.75" customHeight="1" spans="1:3">
       <c r="A91" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" ht="15.75" customHeight="1" spans="1:3">
       <c r="A92" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" ht="15.75" customHeight="1" spans="1:3">
       <c r="A93" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" ht="15.75" customHeight="1" spans="1:3">
       <c r="A94" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" ht="15.75" customHeight="1" spans="1:3">
       <c r="A95" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" ht="15.75" customHeight="1" spans="1:3">
       <c r="A96" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" ht="15.75" customHeight="1" spans="1:3">
       <c r="A97" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" ht="15.75" customHeight="1" spans="1:3">
       <c r="A98" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1" spans="1:3">
       <c r="A100" s="9"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" ht="15.75" customHeight="1" spans="1:3">
       <c r="A101" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="B102" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" ht="15.75" customHeight="1" spans="1:3">
       <c r="A103" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" ht="15.75" customHeight="1" spans="1:3">
       <c r="A104" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" ht="15.75" customHeight="1" spans="1:3">
       <c r="A105" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" ht="15.75" customHeight="1" spans="1:3">
       <c r="A106" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" ht="15.75" customHeight="1" spans="1:3">
       <c r="A107" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" ht="15.75" customHeight="1" spans="1:3">
       <c r="A108" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" ht="15.75" customHeight="1" spans="1:3">
       <c r="A109" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" ht="15.75" customHeight="1" spans="1:3">
       <c r="A110" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" ht="15.75" customHeight="1" spans="1:3">
       <c r="A111" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" ht="15.75" customHeight="1" spans="1:3">
       <c r="A112" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" ht="15.75" customHeight="1" spans="1:3">
       <c r="A113" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" ht="15.75" customHeight="1" spans="1:3">
       <c r="A114" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" ht="15.75" customHeight="1" spans="1:3">
       <c r="A115" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" ht="15.75" customHeight="1" spans="1:3">
       <c r="A116" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" ht="15.75" customHeight="1" spans="1:3">
       <c r="A117" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" ht="15.75" customHeight="1" spans="1:3">
       <c r="A118" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" ht="15.75" customHeight="1" spans="1:3">
       <c r="A119" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" ht="15.75" customHeight="1" spans="1:3">
       <c r="A120" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" ht="15.75" customHeight="1" spans="1:3">
       <c r="A121" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" ht="15.75" customHeight="1" spans="1:3">
       <c r="A122" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" ht="15.75" customHeight="1" spans="1:3">
       <c r="A123" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" ht="15.75" customHeight="1" spans="1:3">
       <c r="A124" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" ht="15.75" customHeight="1" spans="1:3">
       <c r="A125" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" ht="15.75" customHeight="1" spans="1:3">
       <c r="A126" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" ht="15.75" customHeight="1" spans="1:3">
       <c r="A127" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" ht="15.75" customHeight="1" spans="1:3">
       <c r="A128" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" ht="15.75" customHeight="1" spans="1:3">
       <c r="A129" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" ht="15.75" customHeight="1" spans="1:3">
       <c r="A130" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" ht="15.75" customHeight="1" spans="1:3">
       <c r="A131" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" ht="15.75" customHeight="1" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" ht="15.75" customHeight="1" spans="1:3">
       <c r="A133" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" ht="15.75" customHeight="1" spans="1:3">
       <c r="A134" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" ht="15.75" customHeight="1" spans="1:3">
       <c r="A135" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" ht="15.75" customHeight="1" spans="1:3">
       <c r="A136" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1" spans="2:3">
       <c r="B138" s="8"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" ht="15.75" customHeight="1" spans="1:3">
       <c r="A139" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A140" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="B140" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" ht="15.75" customHeight="1" spans="1:3">
       <c r="A141" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" ht="15.75" customHeight="1" spans="1:3">
       <c r="A142" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" ht="15.75" customHeight="1" spans="1:3">
       <c r="A143" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" ht="15.75" customHeight="1" spans="1:3">
       <c r="A144" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" ht="15.75" customHeight="1" spans="1:3">
       <c r="A145" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" ht="15.75" customHeight="1" spans="1:3">
       <c r="A146" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" ht="15.75" customHeight="1" spans="1:3">
       <c r="A147" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" ht="15.75" customHeight="1" spans="1:3">
       <c r="A148" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" ht="15.75" customHeight="1" spans="1:3">
       <c r="A149" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" ht="15.75" customHeight="1" spans="1:3">
       <c r="A150" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" ht="15.75" customHeight="1" spans="1:3">
       <c r="A151" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" ht="15.75" customHeight="1" spans="1:3">
       <c r="A152" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" ht="15.75" customHeight="1" spans="1:3">
       <c r="A153" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" ht="15.75" customHeight="1" spans="1:3">
       <c r="A154" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" ht="15.75" customHeight="1" spans="1:3">
       <c r="A155" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" ht="15.75" customHeight="1" spans="1:3">
       <c r="A156" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" ht="15.75" customHeight="1" spans="1:3">
       <c r="A157" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" ht="15.75" customHeight="1" spans="1:3">
       <c r="A158" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" ht="15.75" customHeight="1" spans="1:3">
       <c r="A159" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" ht="15.75" customHeight="1" spans="1:3">
       <c r="A160" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" ht="15.75" customHeight="1" spans="1:3">
       <c r="A161" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" ht="15.75" customHeight="1" spans="1:3">
       <c r="A162" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" ht="15.75" customHeight="1" spans="1:3">
       <c r="A163" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" ht="15.75" customHeight="1" spans="1:3">
       <c r="A164" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" ht="15.75" customHeight="1" spans="1:3">
       <c r="A165" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" ht="15.75" customHeight="1" spans="1:3">
       <c r="A166" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" ht="15.75" customHeight="1" spans="1:3">
       <c r="A167" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" ht="15.75" customHeight="1" spans="1:3">
       <c r="A168" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" ht="15.75" customHeight="1" spans="1:3">
       <c r="A169" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" ht="15.75" customHeight="1" spans="1:3">
       <c r="A170" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" ht="15.75" customHeight="1" spans="1:3">
       <c r="A171" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" ht="15.75" customHeight="1" spans="1:3">
       <c r="A172" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" ht="15.75" customHeight="1" spans="1:3">
       <c r="A173" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" ht="15.75" customHeight="1" spans="1:3">
       <c r="A174" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1" spans="2:3">
       <c r="B176" s="8"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" ht="15.75" customHeight="1" spans="1:3">
       <c r="A177" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B177" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A178" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="B178" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" ht="15.75" customHeight="1" spans="1:3">
       <c r="A179" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" ht="15.75" customHeight="1" spans="1:3">
       <c r="A180" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" ht="15.75" customHeight="1" spans="1:3">
       <c r="A181" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" ht="15.75" customHeight="1" spans="1:3">
       <c r="A182" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" ht="15.75" customHeight="1" spans="1:3">
       <c r="A183" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" ht="15.75" customHeight="1" spans="1:3">
       <c r="A184" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" ht="15.75" customHeight="1" spans="1:3">
       <c r="A185" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" ht="15.75" customHeight="1" spans="1:3">
       <c r="A186" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" ht="15.75" customHeight="1" spans="1:3">
       <c r="A187" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" ht="15.75" customHeight="1" spans="1:3">
       <c r="A188" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" ht="15.75" customHeight="1" spans="1:3">
       <c r="A189" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" ht="15.75" customHeight="1" spans="1:3">
       <c r="A190" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" ht="15.75" customHeight="1" spans="1:3">
       <c r="A191" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" ht="15.75" customHeight="1" spans="1:3">
       <c r="A192" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" ht="15.75" customHeight="1" spans="1:3">
       <c r="A193" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" ht="15.75" customHeight="1" spans="1:3">
       <c r="A194" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" ht="15.75" customHeight="1" spans="1:3">
       <c r="A195" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" ht="15.75" customHeight="1" spans="1:3">
       <c r="A196" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" ht="15.75" customHeight="1" spans="1:3">
       <c r="A197" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" ht="15.75" customHeight="1" spans="1:3">
       <c r="A198" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" ht="15.75" customHeight="1" spans="1:3">
       <c r="A199" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" ht="15.75" customHeight="1" spans="1:3">
       <c r="A200" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" ht="15.75" customHeight="1" spans="1:3">
       <c r="A201" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" ht="15.75" customHeight="1" spans="1:3">
       <c r="A202" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" ht="15.75" customHeight="1" spans="1:3">
       <c r="A203" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" ht="15.75" customHeight="1" spans="1:3">
       <c r="A204" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" ht="15.75" customHeight="1" spans="1:3">
       <c r="A205" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" ht="15.75" customHeight="1" spans="1:3">
       <c r="A206" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" ht="15.75" customHeight="1" spans="1:3">
       <c r="A207" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" ht="15.75" customHeight="1" spans="1:3">
       <c r="A208" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" ht="15.75" customHeight="1" spans="1:3">
       <c r="A209" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" ht="15.75" customHeight="1" spans="1:3">
       <c r="A210" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" ht="15.75" customHeight="1" spans="1:3">
       <c r="A211" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" ht="15.75" customHeight="1" spans="1:3">
       <c r="A212" s="9"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" ht="15.75" customHeight="1" spans="1:3">
       <c r="A213" s="9"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" ht="15.75" customHeight="1" spans="1:3">
       <c r="A214" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B214" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A215" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C214" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="B215" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" ht="15.75" customHeight="1" spans="1:3">
       <c r="A216" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" ht="15.75" customHeight="1" spans="1:3">
       <c r="A217" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" ht="15.75" customHeight="1" spans="1:3">
       <c r="A218" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" ht="15.75" customHeight="1" spans="1:3">
       <c r="A219" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" ht="15.75" customHeight="1" spans="1:3">
       <c r="A220" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" ht="15.75" customHeight="1" spans="1:3">
       <c r="A221" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" ht="15.75" customHeight="1" spans="1:3">
       <c r="A222" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" ht="15.75" customHeight="1" spans="1:3">
       <c r="A223" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" ht="15.75" customHeight="1" spans="1:3">
       <c r="A224" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" ht="15.75" customHeight="1" spans="1:3">
       <c r="A225" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" ht="15.75" customHeight="1" spans="1:3">
       <c r="A226" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" ht="15.75" customHeight="1" spans="1:3">
       <c r="A227" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" ht="15.75" customHeight="1" spans="1:3">
       <c r="A228" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" ht="15.75" customHeight="1" spans="1:3">
       <c r="A229" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" ht="15.75" customHeight="1" spans="1:3">
       <c r="A230" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" ht="15.75" customHeight="1" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" ht="15.75" customHeight="1" spans="1:3">
       <c r="A232" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" ht="15.75" customHeight="1" spans="1:3">
       <c r="A233" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" ht="15.75" customHeight="1" spans="1:3">
       <c r="A234" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" ht="15.75" customHeight="1" spans="1:3">
       <c r="A235" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" ht="15.75" customHeight="1" spans="2:3">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" ht="15.75" customHeight="1" spans="2:3">
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" ht="15.75" customHeight="1" spans="1:3">
       <c r="A238" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B238" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A239" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C238" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="6" t="s">
-        <v>232</v>
-      </c>
       <c r="B239" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" ht="15.75" customHeight="1" spans="1:3">
       <c r="A240" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" ht="15.75" customHeight="1" spans="1:3">
       <c r="A241" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" ht="15.75" customHeight="1" spans="1:3">
       <c r="A242" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" ht="15.75" customHeight="1" spans="1:3">
       <c r="A243" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" ht="15.75" customHeight="1" spans="1:3">
       <c r="A244" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" ht="15.75" customHeight="1" spans="1:3">
       <c r="A245" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" ht="15.75" customHeight="1" spans="1:3">
       <c r="A246" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" ht="15.75" customHeight="1" spans="1:3">
       <c r="A247" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" ht="15.75" customHeight="1" spans="1:3">
       <c r="A248" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" ht="15.75" customHeight="1" spans="1:3">
       <c r="A249" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="250" ht="15.75" customHeight="1" spans="1:3">
       <c r="A250" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="251" ht="15.75" customHeight="1" spans="1:3">
       <c r="A251" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="252" ht="15.75" customHeight="1" spans="1:3">
       <c r="A252" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="253" ht="15.75" customHeight="1" spans="1:3">
       <c r="A253" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" ht="15.75" customHeight="1" spans="1:3">
       <c r="A254" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" ht="15.75" customHeight="1" spans="1:3">
       <c r="A255" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="256" ht="15.75" customHeight="1" spans="1:3">
       <c r="A256" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" ht="15.75" customHeight="1" spans="1:3">
       <c r="A257" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="258" ht="15.75" customHeight="1" spans="1:3">
       <c r="A258" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="259" ht="15.75" customHeight="1" spans="1:3">
       <c r="A259" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="260" ht="15.75" customHeight="1" spans="1:3">
       <c r="A260" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="261" ht="15.75" customHeight="1" spans="1:3">
       <c r="A261" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="262" ht="15.75" customHeight="1" spans="1:3">
       <c r="A262" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="263" ht="15.75" customHeight="1" spans="1:3">
       <c r="A263" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="264" ht="15.75" customHeight="1" spans="1:3">
       <c r="A264" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="265" ht="15.75" customHeight="1" spans="1:3">
       <c r="A265" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="266" ht="15.75" customHeight="1" spans="1:3">
       <c r="A266" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="267" ht="15.75" customHeight="1" spans="1:3">
       <c r="A267" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="268" ht="15.75" customHeight="1" spans="1:3">
       <c r="A268" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="269" ht="15.75" customHeight="1" spans="1:3">
       <c r="A269" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="270" ht="15.75" customHeight="1" spans="1:3">
       <c r="A270" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="271" ht="15.75" customHeight="1" spans="1:3">
       <c r="A271" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="272" ht="15.75" customHeight="1" spans="1:3">
       <c r="A272" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="273" ht="15.75" customHeight="1" spans="2:3">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="274" ht="15.75" customHeight="1" spans="2:3">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" ht="15.75" customHeight="1" spans="1:3">
       <c r="A275" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B275" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A276" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C275" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A276" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="B276" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="277" ht="15.75" customHeight="1" spans="1:3">
       <c r="A277" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="278" ht="15.75" customHeight="1" spans="1:3">
       <c r="A278" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="279" ht="15.75" customHeight="1" spans="1:3">
       <c r="A279" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="280" ht="15.75" customHeight="1" spans="1:3">
       <c r="A280" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" ht="15.75" customHeight="1" spans="1:3">
       <c r="A281" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" ht="15.75" customHeight="1" spans="1:3">
       <c r="A282" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="283" ht="15.75" customHeight="1" spans="1:3">
       <c r="A283" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="284" ht="15.75" customHeight="1" spans="1:3">
       <c r="A284" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" ht="15.75" customHeight="1" spans="1:3">
       <c r="A285" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="286" ht="15.75" customHeight="1" spans="1:3">
       <c r="A286" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" ht="15.75" customHeight="1" spans="1:3">
       <c r="A287" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" ht="15.75" customHeight="1" spans="1:3">
       <c r="A288" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" ht="15.75" customHeight="1" spans="1:3">
       <c r="A289" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="290" ht="15.75" customHeight="1" spans="1:3">
       <c r="A290" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="291" ht="15.75" customHeight="1" spans="1:3">
       <c r="A291" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" ht="15.75" customHeight="1" spans="1:3">
       <c r="A292" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="293" ht="15.75" customHeight="1" spans="1:3">
       <c r="A293" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" ht="15.75" customHeight="1" spans="2:3">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="295" ht="15.75" customHeight="1" spans="2:3">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="296" ht="15.75" customHeight="1" spans="1:3">
       <c r="A296" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B296" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A297" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C296" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A297" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="B297" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="298" ht="15.75" customHeight="1" spans="1:3">
       <c r="A298" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="299" ht="15.75" customHeight="1" spans="1:3">
       <c r="A299" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="300" ht="15.75" customHeight="1" spans="1:3">
       <c r="A300" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="301" ht="15.75" customHeight="1" spans="1:3">
       <c r="A301" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="302" ht="15.75" customHeight="1" spans="1:3">
       <c r="A302" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="303" ht="15.75" customHeight="1" spans="1:3">
       <c r="A303" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="304" ht="15.75" customHeight="1" spans="1:3">
       <c r="A304" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="305" ht="15.75" customHeight="1" spans="1:3">
       <c r="A305" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="306" ht="15.75" customHeight="1" spans="1:3">
       <c r="A306" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="307" ht="15.75" customHeight="1" spans="1:3">
       <c r="A307" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="308" ht="15.75" customHeight="1" spans="1:3">
       <c r="A308" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="309" ht="15.75" customHeight="1" spans="1:3">
       <c r="A309" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="310" ht="15.75" customHeight="1" spans="1:3">
       <c r="A310" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="311" ht="15.75" customHeight="1" spans="1:3">
       <c r="A311" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="312" ht="15.75" customHeight="1" spans="1:3">
       <c r="A312" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="313" ht="15.75" customHeight="1" spans="1:3">
       <c r="A313" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="314" ht="15.75" customHeight="1" spans="1:3">
       <c r="A314" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="315" ht="15.75" customHeight="1" spans="1:3">
       <c r="A315" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="316" ht="15.75" customHeight="1" spans="1:3">
       <c r="A316" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="317" ht="15.75" customHeight="1" spans="1:3">
       <c r="A317" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="318" ht="15.75" customHeight="1" spans="1:3">
       <c r="A318" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="319" ht="15.75" customHeight="1" spans="1:3">
       <c r="A319" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="320" ht="15.75" customHeight="1" spans="1:3">
       <c r="A320" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="321" ht="15.75" customHeight="1" spans="1:3">
       <c r="A321" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="322" ht="15.75" customHeight="1" spans="1:3">
       <c r="A322" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="323" ht="15.75" customHeight="1" spans="1:3">
       <c r="A323" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="324" ht="15.75" customHeight="1" spans="1:3">
       <c r="A324" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="325" ht="15.75" customHeight="1" spans="1:3">
       <c r="A325" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="326" ht="15.75" customHeight="1" spans="1:3">
       <c r="A326" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="327" ht="15.75" customHeight="1" spans="1:3">
       <c r="A327" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="328" ht="15.75" customHeight="1" spans="1:3">
       <c r="A328" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="329" ht="15.75" customHeight="1" spans="1:3">
       <c r="A329" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="330" ht="15.75" customHeight="1" spans="1:3">
       <c r="A330" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="331" ht="15.75" customHeight="1" spans="1:3">
       <c r="A331" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="332" ht="15.75" customHeight="1" spans="1:3">
       <c r="A332" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="333" ht="15.75" customHeight="1" spans="1:3">
       <c r="A333" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="334" ht="15.75" customHeight="1" spans="2:3">
       <c r="B334" s="8"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="335" ht="15.75" customHeight="1" spans="2:3">
       <c r="B335" s="8"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="336" ht="15.75" customHeight="1" spans="1:3">
       <c r="A336" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B336" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A337" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C336" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A337" s="9" t="s">
-        <v>326</v>
-      </c>
       <c r="B337" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="338" ht="15.75" customHeight="1" spans="1:3">
       <c r="A338" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="339" ht="15.75" customHeight="1" spans="1:3">
       <c r="A339" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="340" ht="15.75" customHeight="1" spans="1:3">
       <c r="A340" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="341" ht="15.75" customHeight="1" spans="1:3">
       <c r="A341" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="342" ht="15.75" customHeight="1" spans="1:3">
       <c r="A342" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="343" ht="15.75" customHeight="1" spans="1:3">
       <c r="A343" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="344" ht="15.75" customHeight="1" spans="1:3">
       <c r="A344" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="345" ht="15.75" customHeight="1" spans="1:3">
       <c r="A345" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="346" ht="15.75" customHeight="1" spans="1:3">
       <c r="A346" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="347" ht="15.75" customHeight="1" spans="1:3">
       <c r="A347" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="348" ht="15.75" customHeight="1" spans="1:3">
       <c r="A348" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="349" ht="15.75" customHeight="1" spans="1:3">
       <c r="A349" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="350" ht="15.75" customHeight="1" spans="1:3">
       <c r="A350" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="351" ht="15.75" customHeight="1" spans="1:3">
       <c r="A351" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="352" ht="15.75" customHeight="1" spans="1:3">
       <c r="A352" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="353" ht="15.75" customHeight="1" spans="1:3">
       <c r="A353" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="354" ht="15.75" customHeight="1" spans="2:3">
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="355" ht="15.75" customHeight="1" spans="2:3">
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="356" ht="15.75" customHeight="1" spans="1:3">
       <c r="A356" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B356" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A357" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="C356" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A357" s="9" t="s">
-        <v>345</v>
-      </c>
       <c r="B357" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="358" ht="15.75" customHeight="1" spans="1:3">
       <c r="A358" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="359" ht="15.75" customHeight="1" spans="1:3">
       <c r="A359" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="360" ht="15.75" customHeight="1" spans="1:3">
       <c r="A360" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="361" ht="15.75" customHeight="1" spans="1:3">
       <c r="A361" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="362" ht="15.75" customHeight="1" spans="1:3">
       <c r="A362" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="363" ht="15.75" customHeight="1" spans="1:3">
       <c r="A363" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="364" ht="15.75" customHeight="1" spans="1:3">
       <c r="A364" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="365" ht="15.75" customHeight="1" spans="1:3">
       <c r="A365" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="366" ht="15.75" customHeight="1" spans="1:3">
       <c r="A366" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="367" ht="15.75" customHeight="1" spans="1:3">
       <c r="A367" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="368" ht="15.75" customHeight="1" spans="1:3">
       <c r="A368" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="369" ht="15.75" customHeight="1" spans="1:3">
       <c r="A369" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="370" ht="15.75" customHeight="1" spans="1:3">
       <c r="A370" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="371" ht="15.75" customHeight="1" spans="1:3">
       <c r="A371" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="372" ht="15.75" customHeight="1" spans="1:3">
       <c r="A372" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="373" ht="15.75" customHeight="1" spans="1:3">
       <c r="A373" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="374" ht="15.75" customHeight="1" spans="1:3">
       <c r="A374" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="375" ht="15.75" customHeight="1" spans="1:3">
       <c r="A375" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="376" ht="15.75" customHeight="1" spans="1:3">
       <c r="A376" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="377" ht="15.75" customHeight="1" spans="1:3">
       <c r="A377" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="378" ht="15.75" customHeight="1" spans="1:3">
       <c r="A378" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="379" ht="15.75" customHeight="1" spans="1:3">
       <c r="A379" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="380" ht="15.75" customHeight="1" spans="1:3">
       <c r="A380" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="381" ht="15.75" customHeight="1" spans="1:3">
       <c r="A381" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="382" ht="15.75" customHeight="1" spans="1:3">
       <c r="A382" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="383" ht="15.75" customHeight="1" spans="1:3">
       <c r="A383" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="384" ht="15.75" customHeight="1" spans="1:3">
       <c r="A384" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="385" ht="15.75" customHeight="1" spans="1:3">
       <c r="A385" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="386" ht="15.75" customHeight="1" spans="1:3">
       <c r="A386" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="387" ht="15.75" customHeight="1" spans="1:3">
       <c r="A387" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="388" ht="15.75" customHeight="1" spans="1:3">
       <c r="A388" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="389" ht="15.75" customHeight="1" spans="1:3">
       <c r="A389" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="390" ht="15.75" customHeight="1" spans="1:3">
       <c r="A390" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="391" ht="15.75" customHeight="1" spans="1:3">
       <c r="A391" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="392" ht="15.75" customHeight="1" spans="1:3">
       <c r="A392" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="393" ht="15.75" customHeight="1" spans="1:3">
       <c r="A393" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="394" ht="15.75" customHeight="1" spans="1:3">
       <c r="A394" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="395" ht="15.75" customHeight="1" spans="1:3">
       <c r="A395" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="396" ht="15.75" customHeight="1" spans="1:3">
       <c r="A396" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="397" ht="15.75" customHeight="1" spans="1:3">
       <c r="A397" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="398" ht="15.75" customHeight="1" spans="1:3">
       <c r="A398" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="399" ht="15.75" customHeight="1" spans="1:3">
       <c r="A399" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="400" ht="15.75" customHeight="1" spans="2:3">
       <c r="B400" s="8"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="401" ht="15.75" customHeight="1" spans="2:3">
       <c r="B401" s="8"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="402" ht="15.75" customHeight="1" spans="1:3">
       <c r="A402" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B402" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A403" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C402" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A403" s="9" t="s">
-        <v>389</v>
-      </c>
       <c r="B403" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="404" ht="15.75" customHeight="1" spans="1:3">
       <c r="A404" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="405" ht="15.75" customHeight="1" spans="1:3">
       <c r="A405" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="406" ht="15.75" customHeight="1" spans="1:3">
       <c r="A406" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="407" ht="15.75" customHeight="1" spans="1:3">
       <c r="A407" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="408" ht="15.75" customHeight="1" spans="2:3">
       <c r="B408" s="8"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="409" ht="15.75" customHeight="1" spans="2:3">
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="410" ht="15.75" customHeight="1" spans="1:3">
       <c r="A410" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B410" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A411" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C410" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A411" s="6" t="s">
-        <v>395</v>
-      </c>
       <c r="B411" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="412" ht="15.75" customHeight="1" spans="1:3">
       <c r="A412" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="413" ht="15.75" customHeight="1" spans="1:3">
       <c r="A413" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="414" ht="15.75" customHeight="1" spans="1:3">
       <c r="A414" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="415" ht="15.75" customHeight="1" spans="1:3">
       <c r="A415" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="416" ht="15.75" customHeight="1" spans="1:3">
       <c r="A416" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="417" ht="15.75" customHeight="1" spans="1:3">
       <c r="A417" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="418" ht="15.75" customHeight="1" spans="1:3">
       <c r="A418" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="419" ht="15.75" customHeight="1" spans="1:3">
       <c r="A419" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="420" ht="15.75" customHeight="1" spans="1:3">
       <c r="A420" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="421" ht="15.75" customHeight="1" spans="1:3">
       <c r="A421" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="422" ht="15.75" customHeight="1" spans="1:3">
       <c r="A422" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="423" ht="15.75" customHeight="1" spans="1:3">
       <c r="A423" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="424" ht="15.75" customHeight="1" spans="1:3">
       <c r="A424" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="425" ht="15.75" customHeight="1" spans="1:3">
       <c r="A425" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="426" ht="15.75" customHeight="1" spans="1:3">
       <c r="A426" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="427" ht="15.75" customHeight="1" spans="1:3">
       <c r="A427" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="428" ht="15.75" customHeight="1" spans="1:3">
       <c r="A428" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="429" ht="15.75" customHeight="1" spans="1:3">
       <c r="A429" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="430" ht="15.75" customHeight="1" spans="1:3">
       <c r="A430" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="431" ht="15.75" customHeight="1" spans="1:3">
       <c r="A431" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="432" ht="15.75" customHeight="1" spans="1:3">
       <c r="A432" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="433" ht="15.75" customHeight="1" spans="1:3">
       <c r="A433" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="434" ht="15.75" customHeight="1" spans="1:3">
       <c r="A434" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="435" ht="15.75" customHeight="1" spans="1:3">
       <c r="A435" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="436" ht="15.75" customHeight="1" spans="1:3">
       <c r="A436" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="437" ht="15.75" customHeight="1" spans="1:3">
       <c r="A437" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="438" ht="15.75" customHeight="1" spans="1:3">
       <c r="A438" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="439" ht="15.75" customHeight="1" spans="1:3">
       <c r="A439" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="440" ht="15.75" customHeight="1" spans="1:3">
       <c r="A440" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="441" ht="15.75" customHeight="1" spans="1:3">
       <c r="A441" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="442" ht="15.75" customHeight="1" spans="1:3">
       <c r="A442" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="443" ht="15.75" customHeight="1" spans="1:3">
       <c r="A443" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="444" ht="15.75" customHeight="1" spans="1:3">
       <c r="A444" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="445" ht="15.75" customHeight="1" spans="1:3">
       <c r="A445" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="446" ht="15.75" customHeight="1" spans="1:3">
       <c r="A446" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="447" ht="15.75" customHeight="1" spans="1:3">
       <c r="A447" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="448" ht="15.75" customHeight="1" spans="1:3">
       <c r="A448" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="449" ht="15.75" customHeight="1" spans="1:3">
       <c r="A449" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="450" ht="15.75" customHeight="1" spans="1:3">
       <c r="A450" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="451" ht="15.75" customHeight="1" spans="1:3">
       <c r="A451" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="452" ht="15.75" customHeight="1" spans="1:3">
       <c r="A452" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="453" ht="15.75" customHeight="1" spans="1:3">
       <c r="A453" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="454" ht="15.75" customHeight="1" spans="1:3">
       <c r="A454" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="455" ht="15.75" customHeight="1" spans="1:3">
       <c r="A455" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="456" ht="15.75" customHeight="1" spans="1:3">
       <c r="A456" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="457" ht="15.75" customHeight="1" spans="1:3">
       <c r="A457" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="458" ht="15.75" customHeight="1" spans="1:3">
       <c r="A458" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="459" ht="15.75" customHeight="1" spans="1:3">
       <c r="A459" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="460" ht="15.75" customHeight="1" spans="1:3">
       <c r="A460" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="461" ht="15.75" customHeight="1" spans="1:3">
       <c r="A461" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="462" ht="15.75" customHeight="1" spans="1:3">
       <c r="A462" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="463" ht="15.75" customHeight="1" spans="1:3">
       <c r="A463" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="464" ht="15.75" customHeight="1" spans="1:3">
       <c r="A464" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="465" ht="15.75" customHeight="1" spans="1:3">
       <c r="A465" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="466" ht="15.75" customHeight="1" spans="1:3">
       <c r="A466" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="467" ht="15.75" customHeight="1" spans="1:3">
       <c r="A467" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="468" ht="15.75" customHeight="1" spans="1:3">
       <c r="A468" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="469" ht="15.75" customHeight="1" spans="1:3">
       <c r="A469" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="470" ht="15.75" customHeight="1" spans="2:3">
       <c r="B470" s="8"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="471" ht="15.75" customHeight="1" spans="1:3">
       <c r="A471" s="9"/>
       <c r="B471" s="8"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="472" ht="15.75" customHeight="1" spans="1:3">
       <c r="A472" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B472" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A473" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C472" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A473" s="6" t="s">
-        <v>455</v>
-      </c>
       <c r="B473" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="474" ht="15.75" customHeight="1" spans="1:3">
       <c r="A474" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="475" ht="15.75" customHeight="1" spans="1:3">
       <c r="A475" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="476" ht="15.75" customHeight="1" spans="1:3">
       <c r="A476" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="477" ht="15.75" customHeight="1" spans="1:3">
       <c r="A477" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="478" ht="15.75" customHeight="1" spans="1:3">
       <c r="A478" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="479" ht="15.75" customHeight="1" spans="1:3">
       <c r="A479" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="480" ht="15.75" customHeight="1" spans="1:3">
       <c r="A480" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="481" ht="15.75" customHeight="1" spans="1:3">
       <c r="A481" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B56" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B57" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B58" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B63" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B65" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B69" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B70" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B78" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B79" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B81" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B83" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B86" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B87" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B88" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B89" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B90" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B93" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B94" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B95" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B96" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B97" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B98" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B101" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B102" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B103" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B104" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B105" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B107" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B108" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B109" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B110" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B111" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B112" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B113" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B114" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B115" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B116" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B117" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B119" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B120" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B121" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B122" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B123" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B124" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B125" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B126" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B127" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B128" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B132" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B133" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B134" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B135" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B136" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B139" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B140" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B142" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B143" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B144" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B145" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B146" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B147" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B148" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B149" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B150" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B151" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B152" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B153" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B154" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B155" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B156" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B157" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B158" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B159" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B160" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B161" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B162" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B163" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B166" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B167" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B168" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B169" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B170" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B171" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B172" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B173" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B174" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B214" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B215" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B216" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B217" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B218" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B219" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B220" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B221" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B222" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B223" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B224" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B225" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B226" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B227" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B228" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B229" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B230" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B231" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B232" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B233" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B234" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B235" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B238" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B239" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B240" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B241" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B242" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B243" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B244" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B245" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B246" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B247" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B248" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B249" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B250" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B251" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B253" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B254" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B255" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B256" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B258" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B259" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B260" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B261" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B262" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B263" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B264" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B265" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B266" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B267" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B268" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B269" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B270" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B271" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B272" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B275" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B276" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B277" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B278" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B279" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B280" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B281" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B282" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B283" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B284" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B285" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B286" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B287" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B288" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B289" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B290" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B291" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B292" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B293" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B296" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B297" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B298" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B299" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B300" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B301" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B302" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B303" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B304" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B305" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B307" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B308" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B309" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B310" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B311" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B312" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B313" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B314" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B315" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B316" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B317" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B318" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B319" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B320" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B321" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B322" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B323" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B324" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B325" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B326" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B327" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B328" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B329" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B330" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B331" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B332" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B333" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B336" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B337" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B338" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B339" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B340" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B341" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B342" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B343" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B344" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B345" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B346" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B347" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B348" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B349" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B350" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B351" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B352" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B353" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B356" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B357" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B358" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B359" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B360" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B361" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B362" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B363" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B364" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B365" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B366" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B367" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B368" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B369" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B370" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B371" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B372" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B373" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B374" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B375" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B376" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B377" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B378" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B380" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B381" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B382" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B383" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B384" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B385" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B386" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B387" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B388" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B389" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B390" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B391" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B392" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B393" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B394" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B395" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B396" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B397" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B398" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B399" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B402" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B403" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B404" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B405" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B406" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B407" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B410" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B411" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B412" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B413" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B414" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B415" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B416" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B417" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B418" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B419" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B420" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B421" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B422" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B423" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B424" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B425" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B426" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B427" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B428" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B429" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B430" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B431" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B432" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B433" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B434" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B435" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B436" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B437" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="B438" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="B439" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="B440" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="B441" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="B442" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="B443" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="B444" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="B445" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="B446" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="B447" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="B448" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="B449" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="B450" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="B451" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="B452" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="B453" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="B454" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="B455" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="B456" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="B457" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="B458" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="B459" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="B460" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="B461" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="B462" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="B463" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="B464" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="B466" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="B467" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="B468" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="B469" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="B472" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="B473" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="B474" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="B475" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="B476" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="B477" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="B478" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="B479" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="B481" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
+    <hyperlink ref="B6" r:id="rId2" display="Reverse the array"/>
+    <hyperlink ref="B7" r:id="rId3" display="Find the maximum and minimum element in an array"/>
+    <hyperlink ref="B8" r:id="rId4" display="Find the &quot;Kth&quot; max and min element of an array "/>
+    <hyperlink ref="B9" r:id="rId5" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
+    <hyperlink ref="B10" r:id="rId6" display="Move all the negative elements to one side of the array "/>
+    <hyperlink ref="B11" r:id="rId7" display="Find the Union and Intersection of the two sorted arrays."/>
+    <hyperlink ref="B12" r:id="rId8" display="Write a program to cyclically rotate an array by one."/>
+    <hyperlink ref="B13" r:id="rId9" display="find Largest sum contiguous Subarray [V. IMP]"/>
+    <hyperlink ref="B14" r:id="rId10" display="Minimise the maximum difference between heights [V.IMP]"/>
+    <hyperlink ref="B15" r:id="rId11" display="Minimum no. of Jumps to reach end of an array"/>
+    <hyperlink ref="B16" r:id="rId12" display="find duplicate in an array of N+1 Integers"/>
+    <hyperlink ref="B17" r:id="rId13" display="Merge 2 sorted arrays without using Extra space."/>
+    <hyperlink ref="B18" r:id="rId9" display="Kadane's Algo [V.V.V.V.V IMP]"/>
+    <hyperlink ref="B19" r:id="rId14" display="Merge Intervals"/>
+    <hyperlink ref="B20" r:id="rId15" display="Next Permutation"/>
+    <hyperlink ref="B21" r:id="rId16" display="Count Inversion"/>
+    <hyperlink ref="B22" r:id="rId17" display="Best time to buy and Sell stock"/>
+    <hyperlink ref="B23" r:id="rId18" display="find all pairs on integer array whose sum is equal to given number"/>
+    <hyperlink ref="B24" r:id="rId19" display="find common elements In 3 sorted arrays"/>
+    <hyperlink ref="B25" r:id="rId20" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
+    <hyperlink ref="B26" r:id="rId21" display="Find if there is any subarray with sum equal to 0"/>
+    <hyperlink ref="B27" r:id="rId22" display="Find factorial of a large number"/>
+    <hyperlink ref="B28" r:id="rId23" display="find maximum product subarray "/>
+    <hyperlink ref="B29" r:id="rId24" display="Find longest coinsecutive subsequence"/>
+    <hyperlink ref="B30" r:id="rId25" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
+    <hyperlink ref="B31" r:id="rId26" display="Maximum profit by buying and selling a share atmost twice"/>
+    <hyperlink ref="B32" r:id="rId27" display="Find whether an array is a subset of another array"/>
+    <hyperlink ref="B33" r:id="rId28" display="Find the triplet that sum to a given value"/>
+    <hyperlink ref="B34" r:id="rId29" display="Trapping Rain water problem"/>
+    <hyperlink ref="B35" r:id="rId30" display="Chocolate Distribution problem"/>
+    <hyperlink ref="B36" r:id="rId31" display="Smallest Subarray with sum greater than a given value"/>
+    <hyperlink ref="B37" r:id="rId32" display="Three way partitioning of an array around a given value"/>
+    <hyperlink ref="B38" r:id="rId33" display="Minimum swaps required bring elements less equal K together"/>
+    <hyperlink ref="B39" r:id="rId34" display="Minimum no. of operations required to make an array palindrome"/>
+    <hyperlink ref="B40" r:id="rId35" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="B41" r:id="rId36" display="Median of 2 sorted arrays of different size"/>
+    <hyperlink ref="B44" r:id="rId37" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B45" r:id="rId38" display="Search an element in a matriix"/>
+    <hyperlink ref="B46" r:id="rId39" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="B47" r:id="rId40" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="B48" r:id="rId41" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="B49" r:id="rId42" display="Maximum size rectangle"/>
+    <hyperlink ref="B50" r:id="rId43" display="Find a specific pair in matrix"/>
+    <hyperlink ref="B51" r:id="rId44" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="B52" r:id="rId45" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="B53" r:id="rId46" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="B56" r:id="rId47" display="Reverse a String"/>
+    <hyperlink ref="B57" r:id="rId48" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="B58" r:id="rId49" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="B60" r:id="rId50" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="B61" r:id="rId51" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="B62" r:id="rId52" display="Count and Say problem"/>
+    <hyperlink ref="B63" r:id="rId53" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="B64" r:id="rId54" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="B65" r:id="rId55" display="Print all Subsequences of a string."/>
+    <hyperlink ref="B66" r:id="rId56" display="Print all the permutations of the given string"/>
+    <hyperlink ref="B67" r:id="rId57" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="B68" r:id="rId58" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="B69" r:id="rId59" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="B70" r:id="rId60" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="B71" r:id="rId61" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="B72" r:id="rId62" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="B73" r:id="rId63" display="Rabin Karp Algo"/>
+    <hyperlink ref="B74" r:id="rId64" display="KMP Algo"/>
+    <hyperlink ref="B75" r:id="rId65" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="B76" r:id="rId66" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="B77" r:id="rId67" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="B78" r:id="rId68" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="B79" r:id="rId69" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="B80" r:id="rId70" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="B81" r:id="rId71" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="B82" r:id="rId72" display="Longest Common Prefix"/>
+    <hyperlink ref="B83" r:id="rId73" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="B84" r:id="rId74" display="Find the first repeated word in string."/>
+    <hyperlink ref="B85" r:id="rId75" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="B86" r:id="rId76" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="B87" r:id="rId77" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="B88" r:id="rId78" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="B89" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B90" r:id="rId80" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="B91" r:id="rId81" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B92" r:id="rId82" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="B93" r:id="rId83" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="B94" r:id="rId84" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="B95" r:id="rId85" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="B96" r:id="rId86" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="B97" r:id="rId87" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="B98" r:id="rId88" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="B101" r:id="rId89" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="B102" r:id="rId90" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="B103" r:id="rId91" display="Search in a rotated sorted array"/>
+    <hyperlink ref="B104" r:id="rId92" display="square root of an integer"/>
+    <hyperlink ref="B105" r:id="rId93" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B106" r:id="rId94" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="B107" r:id="rId95" display="Find the repeating and the missing"/>
+    <hyperlink ref="B108" r:id="rId96" display="find majority element"/>
+    <hyperlink ref="B109" r:id="rId97" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="B110" r:id="rId98" display="find a pair with a given difference"/>
+    <hyperlink ref="B111" r:id="rId99" display="find four elements that sum to a given value"/>
+    <hyperlink ref="B112" r:id="rId100" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B113" r:id="rId101" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="B114" r:id="rId13" display="merge 2 sorted arrays"/>
+    <hyperlink ref="B115" r:id="rId102" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B116" r:id="rId103" display="Product array Puzzle"/>
+    <hyperlink ref="B117" r:id="rId104" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B118" r:id="rId105" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B119" r:id="rId106" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId107" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId108" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId109" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId110" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId111" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId112" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId113" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId114" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId115" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId116" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId112" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId117" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId118" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId119" display="Subset Sums"/>
+    <hyperlink ref="B134" r:id="rId16" display="Findthe inversion count"/>
+    <hyperlink ref="B135" r:id="rId120" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId121" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B139" r:id="rId122" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId123" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId124" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId125" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId126" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId127" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId128" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId129" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId130" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId131" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId132" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId133" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId134" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId135" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId136" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId137" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId138" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId139" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId140" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId141" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId142" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId143" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId144" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId145" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId146" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId147" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId148" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId149" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId150" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId151" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId152" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId153" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId154" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId155" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId156" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId157" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId158" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId159" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId160" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId161" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId162" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId163" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId164" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId165" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId166" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId167" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId168" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId169" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId170" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId171" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId172" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId173" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId174" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId175" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId176" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId177" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId178" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId179" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId180" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId181" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId182" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId183" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId184" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId185" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId186" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId187" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId188" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId189" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId190" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId191" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId192" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId193" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId194" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId195" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId196" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId197" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId198" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId199" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId200" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId201" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId202" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId203" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId204" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId205" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId206" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId207" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId208" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId209" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId210" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId211" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId212" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId213" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId214" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId215" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId216" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId217" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId218" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId219" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId220" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId221" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId222" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId223" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId224" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId225" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId226" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId227" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId228" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId229" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId230" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId231" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId232" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId233" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId234" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId235" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B261" r:id="rId30" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="B262" r:id="rId236" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId237" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId238" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId239" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId240" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId241" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId242" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId243" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId244" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B271" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B272" r:id="rId245" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId246" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId247" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId248" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId249" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId250" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId251" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId252" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId253" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId254" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId255" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId256" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId257" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId258" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B288" r:id="rId56" display="Print all permutations of a string "/>
+    <hyperlink ref="B289" r:id="rId259" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId260" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId261" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId262" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId263" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId264" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId265" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId266" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId267" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId268" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B301" r:id="rId61" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B302" r:id="rId269" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId270" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B304" r:id="rId271" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId272" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId273" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId274" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId275" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId276" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId277" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId278" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId279" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId280" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId281" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId282" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId283" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId284" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId285" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId286" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId287" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId288" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId289" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId290" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId291" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId292" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId293" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId294" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId295" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId296" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId297" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId298" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId155" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId299" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId300" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId301" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId302" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId303" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId304" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId305" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId306" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId307" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId308" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId150" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId309" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId310" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId311" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId243" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId312" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId313" display="Convert min heap to max heap"/>
+    <hyperlink ref="B352" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B353" r:id="rId314" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B356" r:id="rId315" display="Create a Graph, print it"/>
+    <hyperlink ref="B357" r:id="rId316" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId317" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId318" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId319" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId246" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId320" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId321" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId322" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId323" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId324" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId325" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId326" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId327" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId328" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId329" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId330" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId331" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId332" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId333" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId334" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId335" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId336" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId337" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId338" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId339" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId340" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId341" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId342" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId343" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId344" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId345" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId346" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId347" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId347" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId259" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId251" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId348" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId349" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B395" r:id="rId350" display="Vertex Cover Problem"/>
+    <hyperlink ref="B396" r:id="rId351" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B397" r:id="rId352" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId223" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId353" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId354" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId355" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId356" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B405" r:id="rId81" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B406" r:id="rId357" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId358" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId359" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId360" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId361" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId362" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId363" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId364" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B416" r:id="rId59" display="Edit Distance"/>
+    <hyperlink ref="B417" r:id="rId253" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId365" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId366" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId367" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId368" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId369" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B423" r:id="rId76" display="Longest Common Subsequence"/>
+    <hyperlink ref="B424" r:id="rId54" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B425" r:id="rId370" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId371" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId372" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId373" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId374" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId375" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId376" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId377" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId378" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId379" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId380" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId381" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId382" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B438" r:id="rId11" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="B439" r:id="rId383" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId384" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B441" r:id="rId385" display="Longest Common Substring"/>
+    <hyperlink ref="B442" r:id="rId386" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B443" r:id="rId387" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B444" r:id="rId9" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="B445" r:id="rId388" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B446" r:id="rId389" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B447" r:id="rId62" display="Word Break Problem"/>
+    <hyperlink ref="B448" r:id="rId390" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B449" r:id="rId253" display="Partition problem"/>
+    <hyperlink ref="B450" r:id="rId391" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B451" r:id="rId67" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B452" r:id="rId392" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B453" r:id="rId393" display="Longest alternating subsequence"/>
+    <hyperlink ref="B454" r:id="rId394" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B455" r:id="rId395" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B456" r:id="rId396" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B457" r:id="rId26" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B458" r:id="rId397" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B459" r:id="rId398" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B460" r:id="rId399" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B461" r:id="rId58" display="Word Wrap Problem"/>
+    <hyperlink ref="B462" r:id="rId400" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B463" r:id="rId401" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B464" r:id="rId402" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B465" r:id="rId403" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B466" r:id="rId404" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B467" r:id="rId405" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B468" r:id="rId406" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B469" r:id="rId407" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B472" r:id="rId408" display="Count set bits in an integer"/>
+    <hyperlink ref="B473" r:id="rId409" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B474" r:id="rId410" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B475" r:id="rId411" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B476" r:id="rId412" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B477" r:id="rId413" display="Find position of the only set bit"/>
+    <hyperlink ref="B478" r:id="rId414" display="Copy set bits in a range"/>
+    <hyperlink ref="B479" r:id="rId415" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B480" r:id="rId416" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B481" r:id="rId417" display="Power Set"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/IMPORTANT DSA PROBLEMS List.xlsx
+++ b/IMPORTANT DSA PROBLEMS List.xlsx
@@ -77,13 +77,13 @@
     <t>find Largest sum contiguous Subarray [V. IMP]</t>
   </si>
   <si>
+    <t>Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t>Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>Minimise the maximum difference between heights [V.IMP]</t>
-  </si>
-  <si>
-    <t>Minimum no. of Jumps to reach end of an array</t>
   </si>
   <si>
     <t>find duplicate in an array of N+1 Integers</t>
@@ -2388,8 +2388,8 @@
   <sheetPr/>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
@@ -2512,7 +2512,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:3">
@@ -2520,10 +2520,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:3">
@@ -2531,10 +2531,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="1:3">
@@ -2545,7 +2545,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:3">
@@ -2556,7 +2556,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:3">
@@ -2567,7 +2567,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:3">
@@ -2578,7 +2578,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:3">
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:3">
@@ -2611,7 +2611,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:3">
@@ -2622,7 +2622,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="1:3">
@@ -2633,7 +2633,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:3">
@@ -2644,7 +2644,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:3">
@@ -2655,7 +2655,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:3">
@@ -2666,7 +2666,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:3">
@@ -2677,7 +2677,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:3">
@@ -2688,7 +2688,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:3">
@@ -2699,7 +2699,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="1:3">
@@ -2721,7 +2721,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="1:3">
@@ -2732,7 +2732,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="1:3">
@@ -2743,7 +2743,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="1:3">
@@ -2754,7 +2754,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="1:3">
@@ -2765,7 +2765,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="1:3">
@@ -2776,7 +2776,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="1:3">
@@ -2787,7 +2787,7 @@
         <v>41</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" spans="1:3">
@@ -2798,7 +2798,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" spans="1:3">
@@ -2809,7 +2809,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="1:3">
@@ -2820,13 +2820,13 @@
         <v>44</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" spans="2:3">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" spans="1:3">

--- a/IMPORTANT DSA PROBLEMS List.xlsx
+++ b/IMPORTANT DSA PROBLEMS List.xlsx
@@ -83,13 +83,13 @@
     <t>Minimum no. of Jumps to reach end of an array</t>
   </si>
   <si>
+    <t>find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t>Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t>Merge 2 sorted arrays without using Extra space.</t>
   </si>
   <si>
     <t>Kadane's Algo [V.V.V.V.V IMP]</t>
@@ -2389,7 +2389,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
@@ -2534,7 +2534,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="1:3">
@@ -2542,10 +2542,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:3">
@@ -2553,10 +2553,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:3">
@@ -2567,7 +2567,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:3">
@@ -2578,7 +2578,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:3">
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:3">
@@ -2611,7 +2611,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:3">
@@ -2622,7 +2622,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="1:3">
@@ -2633,7 +2633,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:3">
@@ -2644,7 +2644,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:3">
@@ -2655,7 +2655,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:3">
@@ -2666,7 +2666,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:3">
@@ -2677,7 +2677,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:3">
@@ -2688,7 +2688,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:3">
@@ -2699,7 +2699,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="1:3">
@@ -2721,7 +2721,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="1:3">
@@ -2732,7 +2732,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="1:3">
@@ -2743,7 +2743,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="1:3">
@@ -2754,7 +2754,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="1:3">
@@ -2765,7 +2765,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="1:3">
@@ -2776,7 +2776,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="1:3">
@@ -2787,7 +2787,7 @@
         <v>41</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" spans="1:3">
@@ -2798,7 +2798,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" spans="1:3">
@@ -2809,7 +2809,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="1:3">
@@ -2820,13 +2820,13 @@
         <v>44</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" spans="2:3">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" spans="1:3">
